--- a/DynamicPackage.xlsx
+++ b/DynamicPackage.xlsx
@@ -625,7 +625,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
